--- a/DataFeeds/FreightCost.xlsx
+++ b/DataFeeds/FreightCost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3645D529-C786-4F75-9825-1B595D73D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28C361-3557-44E7-A93F-9BF7AE781FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{E69D8645-EB49-453F-B8A0-50D3F02A166E}"/>
+    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{E69D8645-EB49-453F-B8A0-50D3F02A166E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +73,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,12 +84,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,12 +101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,10 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57AC3DE-4900-4FCC-9D78-2F97B48BCC97}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175:F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3951,142 +3933,120 @@
       <c r="A176" s="3">
         <v>44743</v>
       </c>
-      <c r="B176" s="4">
-        <v>55</v>
-      </c>
-      <c r="C176" s="4">
-        <f t="shared" ref="C176:D181" si="0">B176/B175*C175</f>
-        <v>44.703196347031962</v>
-      </c>
-      <c r="D176" s="4">
-        <f>C176/C175*D175</f>
-        <v>48.595890410958908</v>
-      </c>
-      <c r="E176" s="4">
-        <f t="shared" ref="E176:E181" si="1">D176/D175*E175</f>
-        <v>29.760273972602739</v>
+      <c r="B176" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D176" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E176" s="1">
+        <v>47.4</v>
       </c>
       <c r="F176">
-        <v>49.353124288011202</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>44774</v>
       </c>
-      <c r="B177" s="4">
-        <f t="shared" ref="B177:B181" si="2">B176</f>
-        <v>55</v>
-      </c>
-      <c r="C177" s="4">
-        <f t="shared" si="0"/>
-        <v>44.703196347031962</v>
-      </c>
-      <c r="D177" s="4">
-        <f t="shared" si="0"/>
-        <v>48.595890410958908</v>
-      </c>
-      <c r="E177" s="4">
-        <f t="shared" si="1"/>
-        <v>29.760273972602739</v>
+      <c r="B177" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C177" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E177" s="1">
+        <v>47.4</v>
       </c>
       <c r="F177">
-        <v>51.01377397402598</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>44805</v>
       </c>
-      <c r="B178" s="4">
-        <v>50</v>
-      </c>
-      <c r="C178" s="4">
-        <f t="shared" si="0"/>
-        <v>40.639269406392692</v>
-      </c>
-      <c r="D178" s="4">
-        <f>C178/C177*D177</f>
-        <v>44.178082191780824</v>
-      </c>
-      <c r="E178" s="4">
-        <f t="shared" si="1"/>
-        <v>27.054794520547944</v>
+      <c r="B178" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C178" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E178" s="1">
+        <v>47.4</v>
       </c>
       <c r="F178">
-        <v>51.308705752380966</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>44835</v>
       </c>
-      <c r="B179" s="4">
-        <f>B178</f>
-        <v>50</v>
-      </c>
-      <c r="C179" s="4">
-        <f t="shared" si="0"/>
-        <v>40.639269406392692</v>
-      </c>
-      <c r="D179" s="4">
-        <f t="shared" si="0"/>
-        <v>44.178082191780824</v>
-      </c>
-      <c r="E179" s="4">
-        <f>D179/D178*E178</f>
-        <v>27.054794520547944</v>
+      <c r="B179" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C179" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D179" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E179" s="1">
+        <v>47.4</v>
       </c>
       <c r="F179">
-        <v>50.359564342857141</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>44866</v>
       </c>
-      <c r="B180" s="4">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C180" s="4">
-        <f t="shared" si="0"/>
-        <v>40.639269406392692</v>
-      </c>
-      <c r="D180" s="4">
-        <f t="shared" si="0"/>
-        <v>44.178082191780824</v>
-      </c>
-      <c r="E180" s="4">
-        <f t="shared" si="1"/>
-        <v>27.054794520547944</v>
+      <c r="B180" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C180" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E180" s="1">
+        <v>47.4</v>
       </c>
       <c r="F180">
-        <v>50.898113009523819</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>44896</v>
       </c>
-      <c r="B181" s="4">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C181" s="4">
-        <f t="shared" si="0"/>
-        <v>40.639269406392692</v>
-      </c>
-      <c r="D181" s="4">
-        <f t="shared" si="0"/>
-        <v>44.178082191780824</v>
-      </c>
-      <c r="E181" s="4">
-        <f t="shared" si="1"/>
-        <v>27.054794520547944</v>
+      <c r="B181" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="C181" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="D181" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E181" s="1">
+        <v>47.4</v>
       </c>
       <c r="F181">
-        <v>51.806357114285724</v>
+        <v>48.006254235556533</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/FreightCost.xlsx
+++ b/DataFeeds/FreightCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28C361-3557-44E7-A93F-9BF7AE781FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7099DF3-E019-7C49-8FC8-56A2BCBB88A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{E69D8645-EB49-453F-B8A0-50D3F02A166E}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{E69D8645-EB49-453F-B8A0-50D3F02A166E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57AC3DE-4900-4FCC-9D78-2F97B48BCC97}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175:F181"/>
+      <selection activeCell="F176" sqref="F176:F193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>39448</v>
       </c>
@@ -469,7 +469,7 @@
         <v>49.174060048992892</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>39479</v>
       </c>
@@ -489,7 +489,7 @@
         <v>49.323983686400886</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>39508</v>
       </c>
@@ -509,7 +509,7 @@
         <v>49.76827921540184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>39539</v>
       </c>
@@ -529,7 +529,7 @@
         <v>49.3180155214595</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>39569</v>
       </c>
@@ -549,7 +549,7 @@
         <v>50.27935152948708</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>39600</v>
       </c>
@@ -569,7 +569,7 @@
         <v>48.778626280522133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>39630</v>
       </c>
@@ -589,7 +589,7 @@
         <v>48.287524298298578</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>39661</v>
       </c>
@@ -609,7 +609,7 @@
         <v>47.032915833897484</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>39692</v>
       </c>
@@ -629,7 +629,7 @@
         <v>46.738530508417377</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>39722</v>
       </c>
@@ -649,7 +649,7 @@
         <v>41.764280118569594</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>39753</v>
       </c>
@@ -669,7 +669,7 @@
         <v>40.50439937284704</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>39783</v>
       </c>
@@ -689,7 +689,7 @@
         <v>39.905618833351227</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>39814</v>
       </c>
@@ -709,7 +709,7 @@
         <v>41.432493125949016</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>39845</v>
       </c>
@@ -729,7 +729,7 @@
         <v>40.433741254013192</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>39873</v>
       </c>
@@ -749,7 +749,7 @@
         <v>40.309367834839257</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>39904</v>
       </c>
@@ -769,7 +769,7 @@
         <v>41.642299269264818</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>39934</v>
       </c>
@@ -789,7 +789,7 @@
         <v>44.595621455866386</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>39965</v>
       </c>
@@ -809,7 +809,7 @@
         <v>44.891985068269918</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>39995</v>
       </c>
@@ -829,7 +829,7 @@
         <v>44.481476141124617</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>40026</v>
       </c>
@@ -849,7 +849,7 @@
         <v>46.502748443551134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>40057</v>
       </c>
@@ -869,7 +869,7 @@
         <v>46.681430624759571</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>40087</v>
       </c>
@@ -889,7 +889,7 @@
         <v>47.676635970913239</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>40118</v>
       </c>
@@ -909,7 +909,7 @@
         <v>47.665006357784058</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>40148</v>
       </c>
@@ -929,7 +929,7 @@
         <v>47.541019981718463</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>40179</v>
       </c>
@@ -949,7 +949,7 @@
         <v>49.571596007815309</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>40210</v>
       </c>
@@ -969,7 +969,7 @@
         <v>48.633776939685546</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>40238</v>
       </c>
@@ -989,7 +989,7 @@
         <v>50.800209375232413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>40269</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>51.742788373618652</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>40299</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>50.244686288432987</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>40330</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>49.67966530054489</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>40360</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>48.835320467357313</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>40391</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>49.583524769228418</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>40422</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>49.829571179308708</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>40452</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>50.390739431067018</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>40483</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>50.831491661136255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>40513</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>50.798425379036232</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>40544</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>53.126735121447936</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>40575</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>53.07241000879651</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40603</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>54.303319775859002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40634</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>55.444493096497261</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40664</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>55.16708204666751</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40695</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>53.945029529349966</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40725</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>54.394503642854033</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40756</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>53.660580322426149</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40787</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>52.422774095531452</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40817</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>51.330760072234142</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40848</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>51.233052054774504</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40878</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>51.030277527972551</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>53.182131046441022</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>40940</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>53.636538203944738</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>40969</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>54.488155402499309</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41000</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>54.546942742957611</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41030</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>53.921853219615564</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41061</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>52.34757266771485</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41091</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>52.330453597395007</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41122</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>54.11225414749353</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41153</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>54.78609049284222</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41183</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>54.111864943870742</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41214</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>53.762084740693119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41244</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>53.852980481392841</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>41275</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>55.43515602513331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>41306</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>54.062009409476786</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>41334</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>53.938491086704843</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>41365</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>54.263997730768487</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>41395</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>54.48626117939633</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>41426</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>53.192194662860778</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>41456</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>52.041503425785073</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>41487</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>52.700728125573889</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>41518</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>52.849908250264555</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>41548</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>52.578751499266509</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>41579</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>52.1500197049589</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>41609</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>51.143551352846309</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>41640</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>51.309995342061477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>41671</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>50.375329813380574</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>41699</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>50.732870545347133</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>41730</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>51.306621732161787</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>41760</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>52.112693660653797</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>41791</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>51.731198472158162</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>41821</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>51.454613323102535</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>41852</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>51.22513244395779</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>41883</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>50.719554749968658</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>41913</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>49.598627374597825</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>41944</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>49.257018012377159</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>41974</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>48.084230684718698</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42005</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>47.295802646736341</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42036</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>45.451059643182745</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42064</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>45.59599910354725</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42095</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>46.640840316278009</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42125</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>47.534202783100724</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42156</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>46.246070656201141</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42186</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>43.865402948674138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42217</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>43.440737179478319</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42248</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>42.927493249497054</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42278</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>43.415737278836616</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42309</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>42.897811366477079</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42339</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>41.300790663270746</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42370</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>41.105719592253976</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42401</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>42.040172014844131</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42430</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>44.419323027083998</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42461</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>45.820703878442394</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42491</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>45.631814200887909</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42522</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>45.244851536005584</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42552</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>44.118708948364493</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42583</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>44.818492894776512</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42614</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>44.410570089116163</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42644</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>43.715671974894086</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42675</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>43.222566866559873</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42705</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>43.285442474763521</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42736</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>45.141336482197843</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42767</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>45.122228300234134</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42795</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>44.74313267047657</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42826</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>44.594643742580374</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42856</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>44.344718641885919</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42887</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>44.754508497101703</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42917</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>46.217380420590054</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>42948</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>47.153386485315814</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42979</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>48.253195702165897</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43009</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>46.90568879211024</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43040</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>46.454335024211908</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43070</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>46.216069666771141</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43101</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>48.91387326801911</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43132</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>47.964242559361821</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43160</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>47.261641457228727</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43191</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>48.024464792683602</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43221</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>47.807682912589861</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43252</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>46.249392283985557</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43282</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>45.606531560486175</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43313</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>46.529532090296378</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43344</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>46.445892556773344</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43374</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>46.325106268351597</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43405</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>45.82445719688625</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43435</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>44.734539749824798</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43466</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43497</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43525</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43556</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43586</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43617</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43647</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43678</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43709</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43739</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43770</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43800</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43831</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43862</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43891</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43922</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43952</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43983</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>44013</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44044</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44075</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44105</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>44136</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>44166</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>44197</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>44228</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>44256</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>44287</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>44317</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>44348</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>49.320000000000007</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44378</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44409</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44440</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44470</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44501</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44531</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44562</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>50.728427981451411</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44593</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>50.227275760864465</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44621</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>49.967647999824138</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44652</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>49.777108644570511</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44682</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>47.450656141138708</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44713</v>
       </c>
@@ -3929,124 +3929,364 @@
         <v>48.006254235556533</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>44743</v>
       </c>
       <c r="B176" s="1">
-        <v>87.6</v>
+        <v>70.5</v>
       </c>
       <c r="C176" s="1">
-        <v>71.2</v>
+        <v>57.25</v>
       </c>
       <c r="D176" s="1">
-        <v>77.400000000000006</v>
+        <v>64</v>
       </c>
       <c r="E176" s="1">
-        <v>47.4</v>
+        <v>39.25</v>
       </c>
       <c r="F176">
-        <v>48.006254235556533</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49.353124288011202</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>44774</v>
       </c>
       <c r="B177" s="1">
-        <v>87.6</v>
+        <v>62.5</v>
       </c>
       <c r="C177" s="1">
-        <v>71.2</v>
+        <v>48.75</v>
       </c>
       <c r="D177" s="1">
-        <v>77.400000000000006</v>
+        <v>51.25</v>
       </c>
       <c r="E177" s="1">
-        <v>47.4</v>
+        <v>33.5</v>
       </c>
       <c r="F177">
-        <v>48.006254235556533</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51.01377397402598</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>44805</v>
       </c>
       <c r="B178" s="1">
-        <v>87.6</v>
+        <v>57.4</v>
       </c>
       <c r="C178" s="1">
-        <v>71.2</v>
+        <v>46.2</v>
       </c>
       <c r="D178" s="1">
-        <v>77.400000000000006</v>
+        <v>49.6</v>
       </c>
       <c r="E178" s="1">
-        <v>47.4</v>
+        <v>31</v>
       </c>
       <c r="F178">
-        <v>48.006254235556533</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51.308705752380966</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>44835</v>
       </c>
       <c r="B179" s="1">
-        <v>87.6</v>
+        <v>53.5</v>
       </c>
       <c r="C179" s="1">
-        <v>71.2</v>
+        <v>44.5</v>
       </c>
       <c r="D179" s="1">
-        <v>77.400000000000006</v>
+        <v>48.5</v>
       </c>
       <c r="E179" s="1">
-        <v>47.4</v>
+        <v>29.75</v>
       </c>
       <c r="F179">
-        <v>48.006254235556533</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50.359564342857141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44866</v>
       </c>
       <c r="B180" s="1">
-        <v>87.6</v>
+        <v>40.75</v>
       </c>
       <c r="C180" s="1">
-        <v>71.2</v>
+        <v>36</v>
       </c>
       <c r="D180" s="1">
-        <v>77.400000000000006</v>
+        <v>38.75</v>
       </c>
       <c r="E180" s="1">
-        <v>47.4</v>
+        <v>24.25</v>
       </c>
       <c r="F180">
-        <v>48.006254235556533</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50.898113009523819</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>44896</v>
       </c>
       <c r="B181" s="1">
-        <v>87.6</v>
+        <v>41.75</v>
       </c>
       <c r="C181" s="1">
-        <v>71.2</v>
+        <v>33.75</v>
       </c>
       <c r="D181" s="1">
-        <v>77.400000000000006</v>
+        <v>36.75</v>
       </c>
       <c r="E181" s="1">
-        <v>47.4</v>
+        <v>22.5</v>
       </c>
       <c r="F181">
-        <v>48.006254235556533</v>
+        <v>51.806357114285724</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B182">
+        <v>63.13947499999999</v>
+      </c>
+      <c r="C182">
+        <v>51.541849999999997</v>
+      </c>
+      <c r="D182">
+        <v>55.052825000000006</v>
+      </c>
+      <c r="E182">
+        <v>33.294074999999992</v>
+      </c>
+      <c r="F182">
+        <v>51.984807250707711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B183">
+        <v>63.13947499999999</v>
+      </c>
+      <c r="C183">
+        <v>51.541849999999997</v>
+      </c>
+      <c r="D183">
+        <v>55.052825000000006</v>
+      </c>
+      <c r="E183">
+        <v>33.294074999999992</v>
+      </c>
+      <c r="F183">
+        <v>51.880467133440021</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B184">
+        <v>63.13947499999999</v>
+      </c>
+      <c r="C184">
+        <v>51.541849999999997</v>
+      </c>
+      <c r="D184">
+        <v>55.052825000000006</v>
+      </c>
+      <c r="E184">
+        <v>33.294074999999992</v>
+      </c>
+      <c r="F184">
+        <v>51.376877120299667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B185">
+        <v>64.023427649999988</v>
+      </c>
+      <c r="C185">
+        <v>52.263435899999998</v>
+      </c>
+      <c r="D185">
+        <v>55.823564550000008</v>
+      </c>
+      <c r="E185">
+        <v>33.760192049999993</v>
+      </c>
+      <c r="F185">
+        <v>51.06046971766154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B186">
+        <v>64.023427649999988</v>
+      </c>
+      <c r="C186">
+        <v>52.263435899999998</v>
+      </c>
+      <c r="D186">
+        <v>55.823564550000008</v>
+      </c>
+      <c r="E186">
+        <v>33.760192049999993</v>
+      </c>
+      <c r="F186">
+        <v>49.538204687472536</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B187">
+        <v>64.023427649999988</v>
+      </c>
+      <c r="C187">
+        <v>52.263435899999998</v>
+      </c>
+      <c r="D187">
+        <v>55.823564550000008</v>
+      </c>
+      <c r="E187">
+        <v>33.760192049999993</v>
+      </c>
+      <c r="F187">
+        <v>49.967721836307682</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B188">
+        <v>64.919755637099982</v>
+      </c>
+      <c r="C188">
+        <v>52.995124002600001</v>
+      </c>
+      <c r="D188">
+        <v>56.605094453700005</v>
+      </c>
+      <c r="E188">
+        <v>34.232834738699992</v>
+      </c>
+      <c r="F188">
+        <v>51.885580395323082</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B189">
+        <v>64.919755637099982</v>
+      </c>
+      <c r="C189">
+        <v>52.995124002600001</v>
+      </c>
+      <c r="D189">
+        <v>56.605094453700005</v>
+      </c>
+      <c r="E189">
+        <v>34.232834738699992</v>
+      </c>
+      <c r="F189">
+        <v>52.212990076061537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B190">
+        <v>64.919755637099982</v>
+      </c>
+      <c r="C190">
+        <v>52.995124002600001</v>
+      </c>
+      <c r="D190">
+        <v>56.605094453700005</v>
+      </c>
+      <c r="E190">
+        <v>34.232834738699992</v>
+      </c>
+      <c r="F190">
+        <v>52.514855019913853</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B191">
+        <v>65.828632216019386</v>
+      </c>
+      <c r="C191">
+        <v>53.7370557386364</v>
+      </c>
+      <c r="D191">
+        <v>57.397565776051806</v>
+      </c>
+      <c r="E191">
+        <v>34.712094425041791</v>
+      </c>
+      <c r="F191">
+        <v>51.54340148617846</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B192">
+        <v>65.828632216019386</v>
+      </c>
+      <c r="C192">
+        <v>53.7370557386364</v>
+      </c>
+      <c r="D192">
+        <v>57.397565776051806</v>
+      </c>
+      <c r="E192">
+        <v>34.712094425041791</v>
+      </c>
+      <c r="F192">
+        <v>52.094610189193851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B193">
+        <v>65.828632216019386</v>
+      </c>
+      <c r="C193">
+        <v>53.7370557386364</v>
+      </c>
+      <c r="D193">
+        <v>57.397565776051806</v>
+      </c>
+      <c r="E193">
+        <v>34.712094425041791</v>
+      </c>
+      <c r="F193">
+        <v>53.024205016910784</v>
       </c>
     </row>
   </sheetData>
